--- a/lucro.xlsx
+++ b/lucro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\MeusDocumentos\rufer_\Projeto portifolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\MeusDocumentos\rufer_\Projeto portifolio\agriwest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14EAA2-32EF-4831-9120-592E9F20A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522EA81B-7E9F-4F5B-8011-02354FBFA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,15 +54,9 @@
     <t>Receita Total (R$) - Física</t>
   </si>
   <si>
-    <t>Lucro Líquido (R$) - Venda Física</t>
-  </si>
-  <si>
     <t>Receita Total (R$) - Física + B3</t>
   </si>
   <si>
-    <t>Lucro Líquido (R$) - Venda Física + B3</t>
-  </si>
-  <si>
     <t>Diferença Lucro (R$)</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Lucro Liquido Venda Fisica</t>
+  </si>
+  <si>
+    <t>Lucro Liquido Venda Fisica + B3</t>
   </si>
 </sst>
 </file>
@@ -392,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,21 +442,21 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>100</v>

--- a/lucro.xlsx
+++ b/lucro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\MeusDocumentos\rufer_\Projeto portifolio\agriwest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\MeusDocumentos\Rufer\descartar\agriwest-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522EA81B-7E9F-4F5B-8011-02354FBFA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF6A607-EBAB-4294-83E1-865CB5DF2904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,8 +79,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +471,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>6843.29</v>
@@ -474,7 +483,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G2">
-        <v>6200</v>
+        <v>7300</v>
       </c>
       <c r="H2">
         <v>684329</v>
@@ -503,7 +512,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>6170.61</v>
@@ -515,7 +524,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>6200</v>
+        <v>6800</v>
       </c>
       <c r="H3">
         <v>617061</v>
@@ -544,7 +553,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>5854.92</v>
@@ -556,7 +565,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G4">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="H4">
         <v>585492</v>
@@ -576,6 +585,9 @@
       <c r="M4">
         <v>13066.49999999988</v>
       </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
